--- a/tabela_artistas.xlsx
+++ b/tabela_artistas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\6.Atualização_Bases\2.Tabela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\GitHub\Reposit-rio-oficial-da-Vybbe-Habbla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B74B058-EE2D-4925-8075-1C289772D6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81B5F2-C342-4168-97F6-BA877A9C03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="769" xr2:uid="{C9B86C4B-CDC2-4794-A93A-41669D3BE0A7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tabela_artistas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tabela_artistas!$A$1:$B$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tabela_artistas!$A$1:$B$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Artista</t>
   </si>
@@ -111,7 +111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF7879F-153D-47B1-AB35-653E34550CA7}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,15 +499,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,39 +523,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,15 +563,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,18 +587,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B14">
+    <sortCondition ref="B2:B14"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>